--- a/数据整理/stocks/A股/创业板/300850-新强联.xlsx
+++ b/数据整理/stocks/A股/创业板/300850-新强联.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>广发多因子灵活配置混合</t>
   </si>
   <si>
+    <t>1.24</t>
+  </si>
+  <si>
     <t>94.51</t>
   </si>
   <si>
     <t>6.96</t>
+  </si>
+  <si>
+    <t>0.0863</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300850-新强联.xlsx
+++ b/数据整理/stocks/A股/创业板/300850-新强联.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>002943</t>
-  </si>
-  <si>
-    <t>广发多因子灵活配置混合</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>94.51</t>
-  </si>
-  <si>
-    <t>6.96</t>
-  </si>
-  <si>
-    <t>0.0863</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,1975 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3611</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>126.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1484</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9424</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达行业领先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9254</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8601</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7113</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6069</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4245</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3597</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3396</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2418</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>53.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>75.88</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>58.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>66.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300850-新强联.xlsx
+++ b/数据整理/stocks/A股/创业板/300850-新强联.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2417,4 +2418,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300850-新强联.xlsx
+++ b/数据整理/stocks/A股/创业板/300850-新强联.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2426,7 +2427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2437,17 +2438,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2457,14 +2478,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>48</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.79</v>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0548</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2473,13 +2516,1371 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0204</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9833</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8229</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6075</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3312</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3195</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010879</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方宝升混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2861</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2707</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010880</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方宝升混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005397</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方安养混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300850-新强联.xlsx
+++ b/数据整理/stocks/A股/创业板/300850-新强联.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3811,7 +3812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3822,17 +3823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3842,14 +3863,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.69</v>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2369</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3858,14 +3901,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>48</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.79</v>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0382</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3874,13 +3939,1199 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3629</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3185</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2617</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300850-新强联.xlsx
+++ b/数据整理/stocks/A股/创业板/300850-新强联.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5046,7 +5047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5057,17 +5058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5077,14 +5098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8</v>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2689</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5093,14 +5136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.69</v>
+          <t>012223</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0572</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5109,14 +5174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>48</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.79</v>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5277</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5125,13 +5212,2125 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4174</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3708</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3577</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012224</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3534</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3173</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3172</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2832</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2808</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2753</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2350</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014045</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013495</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银产业优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>47.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014150</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012097</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013575</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013496</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>信达澳银产业优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>47.38</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015004</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013576</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015005</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.279999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300850-新强联.xlsx
+++ b/数据整理/stocks/A股/创业板/300850-新强联.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="D2" t="n">
-        <v>8.279999999999999</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>8.279999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>8.69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>17.79</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>48</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -566,6 +583,4654 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H122"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7624</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7164</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012223</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6967</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6358</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015396</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6155</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5766</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5576</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4665</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利景气领航两年持有混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4572</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4007</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3939</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信澳中小盘混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3563</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012224</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信澳成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3499</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3321</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信澳产业升级混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3051</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012800</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2970</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2360</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015303</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014807</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014575</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鑫元清洁能源混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信澳新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>54.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013495</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信澳产业优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002562</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泓德泓益量化混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014574</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鑫元清洁能源混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012097</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>33.87</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013575</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014647</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>融通先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014648</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>融通先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>38.28</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015005</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>015304</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>33.87</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002839</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>44.91</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>013496</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>信澳产业优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014808</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>63.44</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015004</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>63.44</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013576</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>014471</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>015767</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>014045</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>银华积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>38.28</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002838</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>44.91</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2747,7 +7412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3981,7 +8646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5365,7 +10030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7245,7 +11910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300850-新强联.xlsx
+++ b/数据整理/stocks/A股/创业板/300850-新强联.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="D3" t="n">
-        <v>8.279999999999999</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>8.279999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>8.69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>17.79</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>48</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -583,6 +600,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2643</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013051</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013052</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011523</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新疆前海联合产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005212</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安稳裕债券</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011524</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新疆前海联合产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012480</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安信泰稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012479</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安信泰稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5230,7 +6063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7412,7 +8245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8646,7 +9479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10030,7 +10863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11910,7 +12743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
